--- a/ROI_Growth Forecast.xlsx
+++ b/ROI_Growth Forecast.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Teshan/Documents/Hackathon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{93682126-E69C-5144-8DF6-16271DF260E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1037E88C-EA11-1A42-81C9-D4EEB078FCC3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1270,6 +1270,64 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Return</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> on Investment</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -1291,27 +1349,41 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="3"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
           </c:marker>
           <c:xVal>
@@ -1394,27 +1466,41 @@
             <c:v>Total Liabilities</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="3"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
           </c:marker>
           <c:xVal>
@@ -1512,9 +1598,10 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -1528,14 +1615,8 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1546,9 +1627,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1574,9 +1654,10 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -1592,9 +1673,8 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1608,9 +1688,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1634,6 +1713,36 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1647,11 +1756,14 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="dk1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -1719,56 +1831,46 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:chartArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -1776,16 +1878,15 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="lt1">
         <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1795,23 +1896,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -1819,63 +1915,123 @@
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="22225" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -1899,21 +2055,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1923,20 +2076,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1948,14 +2100,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1967,14 +2118,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1986,14 +2136,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -2005,9 +2149,10 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2024,9 +2169,10 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2038,14 +2184,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="lt1">
             <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2057,14 +2202,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2076,27 +2220,26 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -2104,9 +2247,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2116,14 +2258,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2135,12 +2276,11 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -2149,14 +2289,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="25400" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -2165,9 +2306,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2177,17 +2317,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2199,37 +2340,30 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -3952,7 +4086,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
